--- a/biology/Médecine/Gyalpo_Dawa/Gyalpo_Dawa.xlsx
+++ b/biology/Médecine/Gyalpo_Dawa/Gyalpo_Dawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gyalpo Dawa aussi appelé Doctor Dawa, né à Lhassa en 1958 est un médecin tibétain.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gyalpo Dawa est né à Lhassa en 1958. En 1975, il est diplômé de l'Université médicale de Lhassa où il a acquis une formation en médecine et pharmacologie. En 1976, il est devenu membre du Comité de recherche de médecine tibétaine traditionnelle. En 1980 il a complété sa formation à l'Institut de recherche médicale et à l’École d'Art Botanique de Chine. En 1983, il obtient un diplôme pour son examen final à l'Université médicale de Lhassa.
-Le Docteur Dawa s'est enfui de Lhassa pour l'Inde en juillet 1988. Le 14e dalaï-lama lui a conseillé de poursuivre et de compléter son projet visant à catégoriser les plantes de la médecine tibétaine, avec le soutien de l'Institut de médecine et d'astrologie tibétaine. Il a poursuivi durant quatre ans ses recherches pour la publication de son travail sous la forme d'un livre. Il travaille à un deuxième volume de cette collection[1].
-Entre 2005 et 2010, il a été le directeur de l'Institut de médecine et d'astrologie tibétaine, à Dharamsala[2].
-Il enseigne à l'International Institute of Higher Tibetan Studies (IIHTS) à Hüttenberg, en Autriche[3].
+Le Docteur Dawa s'est enfui de Lhassa pour l'Inde en juillet 1988. Le 14e dalaï-lama lui a conseillé de poursuivre et de compléter son projet visant à catégoriser les plantes de la médecine tibétaine, avec le soutien de l'Institut de médecine et d'astrologie tibétaine. Il a poursuivi durant quatre ans ses recherches pour la publication de son travail sous la forme d'un livre. Il travaille à un deuxième volume de cette collection.
+Entre 2005 et 2010, il a été le directeur de l'Institut de médecine et d'astrologie tibétaine, à Dharamsala.
+Il enseigne à l'International Institute of Higher Tibetan Studies (IIHTS) à Hüttenberg, en Autriche.
 </t>
         </is>
       </c>
